--- a/biology/Botanique/Karmijn_de_Sonnaville/Karmijn_de_Sonnaville.xlsx
+++ b/biology/Botanique/Karmijn_de_Sonnaville/Karmijn_de_Sonnaville.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F9"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Karmijn de Sonnaville est le nom d'un cultivar de pommier domestique.
 </t>
@@ -511,7 +523,9 @@
           <t>Synonyme</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Karmine</t>
         </is>
@@ -541,7 +555,9 @@
           <t>Description du fruit</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Usage: principalement la production de jus de pomme.
 Aspect: peu attractif car le fruit se crevasse.
@@ -575,7 +591,9 @@
           <t>Origine</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Obtenteur: Piet de Sonnaville, Institut universitaire de Wageningen, Pays-Bas.
 Création: 1949.
@@ -607,9 +625,11 @@
           <t>Parenté</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>Ascendance: La pomme Karmijn de Sonnaville résulte du croisement Cox's Orange Pippin × Jonathan[1].</t>
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Ascendance: La pomme Karmijn de Sonnaville résulte du croisement Cox's Orange Pippin × Jonathan.</t>
         </is>
       </c>
     </row>
@@ -637,9 +657,11 @@
           <t>Pollinisation</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>Variété triploïde[2], auto-stérile
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Variété triploïde, auto-stérile
 Groupe de floraison: D (mi-tardive).
 S-génotype: S5S7S9.
 Pollinisateurs: Discovery, Ecolette, Reine des Reinettes, Golden Delicious, ...</t>
@@ -670,7 +692,9 @@
           <t>Maladies</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
         <is>
           <t xml:space="preserve">Susceptible à la tavelure, au chancre, au feu bactérien, à l'oïdium, au pourridié.
 </t>
@@ -701,10 +725,12 @@
           <t>Culture</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr">
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
         <is>
           <t>Fructification: type spur.
-Vigueur du cultivar: forte (T3)[3].
+Vigueur du cultivar: forte (T3).
 Récolte: fin septembre / début octobre.
 Conservation: 1 à 2 mois.
 Porte-greffe: M9, M26 ou MM106 selon la hauteur souhaitée.
